--- a/data/trans_orig/P45C_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R2-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{868F686A-54BF-40B2-9110-69EBC1847FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66273607-5068-4B34-BF65-70A615EA6DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CE321EC3-9056-48FC-B906-773B5143EEFE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B20F6FD9-B8B5-410B-ABB2-BB76A2E9F959}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="421">
   <si>
     <t>Población con alguna quemadura solar en el último año en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,28 +77,28 @@
     <t>17,31%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
   </si>
   <si>
     <t>14,08%</t>
   </si>
   <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,1158 +107,1185 @@
     <t>82,69%</t>
   </si>
   <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
   </si>
   <si>
     <t>89,22%</t>
   </si>
   <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
   </si>
   <si>
     <t>85,92%</t>
   </si>
   <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
   </si>
   <si>
     <t>9,17%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
   </si>
   <si>
     <t>12,7%</t>
   </si>
   <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
   </si>
   <si>
     <t>83,79%</t>
   </si>
   <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
   </si>
   <si>
     <t>90,83%</t>
   </si>
   <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
   <si>
     <t>87,3%</t>
   </si>
   <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>16,64%</t>
   </si>
   <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
   </si>
   <si>
     <t>11,64%</t>
   </si>
   <si>
-    <t>9,62%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
   </si>
   <si>
     <t>14,01%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
   <si>
     <t>85,99%</t>
   </si>
   <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>82,44%</t>
   </si>
   <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>24,16%</t>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>16,96%</t>
   </si>
   <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
   </si>
   <si>
     <t>83,04%</t>
   </si>
   <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2015 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
     <t>81,47%</t>
   </si>
   <si>
@@ -1269,9 +1296,6 @@
   </si>
   <si>
     <t>88,42%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
   </si>
   <si>
     <t>84,08%</t>
@@ -1689,7 +1713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD41535-D755-4206-A6D8-FB976D83C5CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E753CFF-98F9-468A-9150-049E2389DF43}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2153,13 +2177,13 @@
         <v>271794</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,13 +2198,13 @@
         <v>799059</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>795</v>
@@ -2189,13 +2213,13 @@
         <v>852538</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1541</v>
@@ -2204,13 +2228,13 @@
         <v>1651597</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,7 +2290,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2278,13 +2302,13 @@
         <v>99421</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>101</v>
@@ -2293,13 +2317,13 @@
         <v>98818</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>194</v>
@@ -2308,13 +2332,13 @@
         <v>198239</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,13 +2353,13 @@
         <v>578276</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>593</v>
@@ -2344,13 +2368,13 @@
         <v>583362</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1140</v>
@@ -2359,13 +2383,13 @@
         <v>1161638</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,7 +2493,7 @@
         <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2508,13 @@
         <v>798643</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>854</v>
@@ -2499,13 +2523,13 @@
         <v>892753</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1691</v>
@@ -2514,13 +2538,13 @@
         <v>1691396</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2612,13 @@
         <v>513467</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>421</v>
@@ -2603,13 +2627,13 @@
         <v>418942</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>927</v>
@@ -2618,13 +2642,13 @@
         <v>932409</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,7 +2663,7 @@
         <v>2755397</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>113</v>
@@ -2752,7 +2776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C87F0C-D141-455F-9DAF-101877E48DF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F30A7A-80D9-4E74-B951-4848AFA4F7F7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3031,13 +3055,13 @@
         <v>96796</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>72</v>
@@ -3046,13 +3070,13 @@
         <v>77953</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M7" s="7">
         <v>169</v>
@@ -3061,13 +3085,13 @@
         <v>174748</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3106,13 @@
         <v>488059</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="H8" s="7">
         <v>478</v>
@@ -3097,13 +3121,13 @@
         <v>506153</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>930</v>
@@ -3112,13 +3136,13 @@
         <v>994213</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,28 +3210,28 @@
         <v>160640</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>121</v>
       </c>
       <c r="I10" s="7">
-        <v>130685</v>
+        <v>130684</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>272</v>
@@ -3216,13 +3240,13 @@
         <v>291325</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3261,13 @@
         <v>847425</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H11" s="7">
         <v>809</v>
@@ -3252,13 +3276,13 @@
         <v>890464</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>1585</v>
@@ -3267,13 +3291,13 @@
         <v>1737889</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,7 +3324,7 @@
         <v>930</v>
       </c>
       <c r="I12" s="7">
-        <v>1021149</v>
+        <v>1021148</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3329,7 +3353,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3341,13 +3365,13 @@
         <v>135541</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>104</v>
@@ -3356,13 +3380,13 @@
         <v>109700</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>232</v>
@@ -3371,13 +3395,13 @@
         <v>245241</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3416,13 @@
         <v>613780</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>592</v>
@@ -3407,7 +3431,7 @@
         <v>657927</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>186</v>
@@ -3419,7 +3443,7 @@
         <v>1145</v>
       </c>
       <c r="N14" s="7">
-        <v>1271708</v>
+        <v>1271707</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>188</v>
@@ -3470,7 +3494,7 @@
         <v>1377</v>
       </c>
       <c r="N15" s="7">
-        <v>1516949</v>
+        <v>1516948</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3499,10 +3523,10 @@
         <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>137</v>
@@ -3511,13 +3535,13 @@
         <v>140079</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>315</v>
@@ -3526,10 +3550,10 @@
         <v>317711</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>198</v>
@@ -3553,7 +3577,7 @@
         <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>854</v>
@@ -3562,13 +3586,13 @@
         <v>899611</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M17" s="7">
         <v>1582</v>
@@ -3577,13 +3601,13 @@
         <v>1665824</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,7 +3690,7 @@
         <v>474690</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>210</v>
@@ -3717,7 +3741,7 @@
         <v>3048737</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>218</v>
@@ -3729,7 +3753,7 @@
         <v>5416</v>
       </c>
       <c r="N20" s="7">
-        <v>5849880</v>
+        <v>5849879</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>220</v>
@@ -3780,7 +3804,7 @@
         <v>6447</v>
       </c>
       <c r="N21" s="7">
-        <v>6922475</v>
+        <v>6922474</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3815,7 +3839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C661E147-8D17-4D8A-A7D6-AFAC18F0A300}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25575F2-DD9A-4C47-9BB3-F31D840DF488}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4252,10 +4276,10 @@
         <v>260</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>123</v>
@@ -4264,13 +4288,13 @@
         <v>126252</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>17</v>
+        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>239</v>
@@ -4279,13 +4303,13 @@
         <v>257984</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4324,13 @@
         <v>880911</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>849</v>
@@ -4315,13 +4339,13 @@
         <v>910124</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>27</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>1675</v>
@@ -4330,13 +4354,13 @@
         <v>1791035</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,7 +4416,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4404,13 +4428,13 @@
         <v>116418</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>137</v>
@@ -4419,28 +4443,28 @@
         <v>140292</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>242</v>
       </c>
       <c r="N13" s="7">
-        <v>256710</v>
+        <v>256709</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4479,13 @@
         <v>632721</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>591</v>
@@ -4470,13 +4494,13 @@
         <v>635244</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>1173</v>
@@ -4485,13 +4509,13 @@
         <v>1267966</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,7 +4557,7 @@
         <v>1415</v>
       </c>
       <c r="N15" s="7">
-        <v>1524676</v>
+        <v>1524675</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4562,10 +4586,10 @@
         <v>32</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H16" s="7">
         <v>149</v>
@@ -4574,13 +4598,13 @@
         <v>159580</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M16" s="7">
         <v>301</v>
@@ -4589,13 +4613,13 @@
         <v>310410</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,10 +4637,10 @@
         <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H17" s="7">
         <v>803</v>
@@ -4625,13 +4649,13 @@
         <v>876685</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>301</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>1576</v>
@@ -4640,13 +4664,13 @@
         <v>1656525</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,13 +4738,13 @@
         <v>453154</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>309</v>
       </c>
       <c r="H19" s="7">
         <v>463</v>
@@ -4729,13 +4753,13 @@
         <v>477446</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>156</v>
+        <v>310</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>886</v>
@@ -4744,13 +4768,13 @@
         <v>930600</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,13 +4789,13 @@
         <v>2912118</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>222</v>
+        <v>315</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H20" s="7">
         <v>2852</v>
@@ -4780,13 +4804,13 @@
         <v>3040762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>166</v>
+        <v>317</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>311</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M20" s="7">
         <v>5633</v>
@@ -4795,13 +4819,13 @@
         <v>5952880</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,7 +4902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E2ED7C-4CA6-4ADA-93C3-1A7BF482E974}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1002BBC-D994-4548-BFC3-5AD3A6BF861D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4895,7 +4919,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5002,13 +5026,13 @@
         <v>13617</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -5017,13 +5041,13 @@
         <v>11298</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -5032,13 +5056,13 @@
         <v>24915</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,13 +5077,13 @@
         <v>87874</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H5" s="7">
         <v>226</v>
@@ -5068,13 +5092,13 @@
         <v>119435</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="M5" s="7">
         <v>329</v>
@@ -5083,13 +5107,13 @@
         <v>207309</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,13 +5181,13 @@
         <v>129738</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="H7" s="7">
         <v>162</v>
@@ -5172,13 +5196,13 @@
         <v>113481</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M7" s="7">
         <v>275</v>
@@ -5187,13 +5211,13 @@
         <v>243219</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5232,13 @@
         <v>416934</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="H8" s="7">
         <v>832</v>
@@ -5223,13 +5247,13 @@
         <v>478427</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="M8" s="7">
         <v>1328</v>
@@ -5238,13 +5262,13 @@
         <v>895361</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,10 +5339,10 @@
         <v>213</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>196</v>
@@ -5327,13 +5351,13 @@
         <v>160336</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="M10" s="7">
         <v>330</v>
@@ -5342,13 +5366,13 @@
         <v>312512</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,10 +5390,10 @@
         <v>222</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="H11" s="7">
         <v>1319</v>
@@ -5378,13 +5402,13 @@
         <v>898312</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M11" s="7">
         <v>2148</v>
@@ -5393,13 +5417,13 @@
         <v>1784238</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,7 +5479,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5467,13 +5491,13 @@
         <v>137058</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>124</v>
@@ -5482,13 +5506,13 @@
         <v>102432</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="M13" s="7">
         <v>231</v>
@@ -5497,13 +5521,13 @@
         <v>239490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5518,13 +5542,13 @@
         <v>589241</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="H14" s="7">
         <v>921</v>
@@ -5533,13 +5557,13 @@
         <v>771129</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="M14" s="7">
         <v>1488</v>
@@ -5548,13 +5572,13 @@
         <v>1360370</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,13 +5646,13 @@
         <v>140212</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="H16" s="7">
         <v>128</v>
@@ -5637,13 +5661,13 @@
         <v>113901</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
         <v>259</v>
@@ -5652,13 +5676,13 @@
         <v>254114</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,13 +5697,13 @@
         <v>825191</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>1433</v>
@@ -5688,13 +5712,13 @@
         <v>1035719</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="M17" s="7">
         <v>2308</v>
@@ -5703,13 +5727,13 @@
         <v>1860909</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5777,13 +5801,13 @@
         <v>572801</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>407</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="H19" s="7">
         <v>627</v>
@@ -5792,10 +5816,10 @@
         <v>501448</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>93</v>
@@ -5807,13 +5831,13 @@
         <v>1074250</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>403</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,13 +5852,13 @@
         <v>2805166</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H20" s="7">
         <v>4731</v>
@@ -5843,13 +5867,13 @@
         <v>3303022</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>7601</v>
@@ -5858,13 +5882,13 @@
         <v>6108188</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>410</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P45C_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66273607-5068-4B34-BF65-70A615EA6DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A918C9C8-2AD8-4D1C-9B92-59F862902724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B20F6FD9-B8B5-410B-ABB2-BB76A2E9F959}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D0AE6F1F-9046-497F-BABD-88756DEE7151}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="413">
   <si>
     <t>Población con alguna quemadura solar en el último año en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>17,31%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>14,08%</t>
   </si>
   <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>82,69%</t>
   </si>
   <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
   </si>
   <si>
     <t>89,22%</t>
   </si>
   <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
   </si>
   <si>
     <t>85,92%</t>
   </si>
   <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>16,21%</t>
   </si>
   <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
   </si>
   <si>
     <t>9,17%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
   </si>
   <si>
     <t>12,7%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
   </si>
   <si>
     <t>83,79%</t>
   </si>
   <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
   </si>
   <si>
     <t>90,83%</t>
   </si>
   <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
   </si>
   <si>
     <t>87,3%</t>
   </si>
   <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -197,1111 +197,1087 @@
     <t>16,64%</t>
   </si>
   <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
     <t>14,29%</t>
   </si>
   <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
   </si>
   <si>
     <t>85,71%</t>
   </si>
   <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
   </si>
   <si>
     <t>86,77%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
   </si>
   <si>
     <t>14,66%</t>
   </si>
   <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
   </si>
   <si>
     <t>85,34%</t>
   </si>
   <si>
-    <t>Población con alguna quemadura solar en el último año en 2016 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
   </si>
   <si>
     <t>12,26%</t>
   </si>
   <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
   </si>
   <si>
     <t>87,74%</t>
   </si>
   <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
     <t>90,09%</t>
   </si>
   <si>
-    <t>91,86%</t>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
   </si>
   <si>
     <t>87,99%</t>
   </si>
   <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
   </si>
   <si>
     <t>16,96%</t>
   </si>
   <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
   </si>
   <si>
     <t>83,04%</t>
   </si>
   <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
   </si>
   <si>
     <t>86,82%</t>
   </si>
   <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
 </sst>
 </file>
@@ -1713,7 +1689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E753CFF-98F9-468A-9150-049E2389DF43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B197355-41A0-46F0-A86D-E2889DA0C007}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2177,13 +2153,13 @@
         <v>271794</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,13 +2174,13 @@
         <v>799059</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>795</v>
@@ -2213,13 +2189,13 @@
         <v>852538</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1541</v>
@@ -2228,13 +2204,13 @@
         <v>1651597</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,7 +2266,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2302,13 +2278,13 @@
         <v>99421</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>101</v>
@@ -2317,13 +2293,13 @@
         <v>98818</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>194</v>
@@ -2332,13 +2308,13 @@
         <v>198239</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,13 +2329,13 @@
         <v>578276</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>593</v>
@@ -2368,13 +2344,13 @@
         <v>583362</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="M14" s="7">
         <v>1140</v>
@@ -2493,7 +2469,7 @@
         <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,13 +2484,13 @@
         <v>798643</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>854</v>
@@ -2523,13 +2499,13 @@
         <v>892753</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1691</v>
@@ -2538,13 +2514,13 @@
         <v>1691396</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,13 +2588,13 @@
         <v>513467</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>421</v>
@@ -2627,13 +2603,13 @@
         <v>418942</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>927</v>
@@ -2642,13 +2618,13 @@
         <v>932409</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,13 +2639,13 @@
         <v>2755397</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>2868</v>
@@ -2678,13 +2654,13 @@
         <v>2952057</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>5568</v>
@@ -2693,13 +2669,13 @@
         <v>5707455</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,7 +2731,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2776,7 +2752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F30A7A-80D9-4E74-B951-4848AFA4F7F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42FF9B7-B3D0-458F-9099-55677418E2B2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2793,7 +2769,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2900,13 +2876,13 @@
         <v>27296</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -2915,13 +2891,13 @@
         <v>16274</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>43</v>
@@ -2930,13 +2906,13 @@
         <v>43570</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2927,13 @@
         <v>85664</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>84</v>
@@ -2966,13 +2942,13 @@
         <v>94582</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>174</v>
@@ -2981,13 +2957,13 @@
         <v>180246</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3046,13 @@
         <v>77953</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M7" s="7">
         <v>169</v>
@@ -3121,10 +3097,10 @@
         <v>506153</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>153</v>
@@ -3222,7 +3198,7 @@
         <v>121</v>
       </c>
       <c r="I10" s="7">
-        <v>130684</v>
+        <v>130685</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>160</v>
@@ -3324,7 +3300,7 @@
         <v>930</v>
       </c>
       <c r="I12" s="7">
-        <v>1021148</v>
+        <v>1021149</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3353,7 +3329,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3380,13 +3356,13 @@
         <v>109700</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>232</v>
@@ -3395,7 +3371,7 @@
         <v>245241</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>181</v>
@@ -3431,13 +3407,13 @@
         <v>657927</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>1145</v>
@@ -3446,7 +3422,7 @@
         <v>1271707</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>189</v>
@@ -3550,10 +3526,10 @@
         <v>317711</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>198</v>
@@ -3601,13 +3577,13 @@
         <v>1665824</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,10 +3669,10 @@
         <v>194</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>1031</v>
@@ -3705,13 +3681,13 @@
         <v>1072595</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3702,13 @@
         <v>2801143</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H20" s="7">
         <v>2817</v>
@@ -3744,25 +3720,25 @@
         <v>202</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>5416</v>
       </c>
       <c r="N20" s="7">
-        <v>5849879</v>
+        <v>5849880</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,7 +3780,7 @@
         <v>6447</v>
       </c>
       <c r="N21" s="7">
-        <v>6922474</v>
+        <v>6922475</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3818,7 +3794,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3839,7 +3815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25575F2-DD9A-4C47-9BB3-F31D840DF488}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6873716F-81F4-48F5-A9A8-A1BB45C97878}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3856,7 +3832,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3963,13 +3939,13 @@
         <v>5011</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3978,13 +3954,13 @@
         <v>6238</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -3993,13 +3969,13 @@
         <v>11249</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +3990,13 @@
         <v>111535</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H5" s="7">
         <v>108</v>
@@ -4029,13 +4005,13 @@
         <v>107122</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M5" s="7">
         <v>216</v>
@@ -4044,13 +4020,13 @@
         <v>218657</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4094,13 @@
         <v>49164</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -4133,13 +4109,13 @@
         <v>45084</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M7" s="7">
         <v>92</v>
@@ -4148,13 +4124,13 @@
         <v>94248</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4145,13 @@
         <v>507110</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H8" s="7">
         <v>501</v>
@@ -4184,13 +4160,13 @@
         <v>511587</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M8" s="7">
         <v>993</v>
@@ -4199,13 +4175,13 @@
         <v>1018697</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,13 +4249,13 @@
         <v>131732</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H10" s="7">
         <v>123</v>
@@ -4288,13 +4264,13 @@
         <v>126252</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>93</v>
       </c>
       <c r="M10" s="7">
         <v>239</v>
@@ -4303,13 +4279,13 @@
         <v>257984</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,13 +4300,13 @@
         <v>880911</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
         <v>849</v>
@@ -4339,13 +4315,13 @@
         <v>910124</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>102</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M11" s="7">
         <v>1675</v>
@@ -4354,13 +4330,13 @@
         <v>1791035</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,7 +4392,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4428,13 +4404,13 @@
         <v>116418</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="H13" s="7">
         <v>137</v>
@@ -4446,25 +4422,25 @@
         <v>175</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>242</v>
       </c>
       <c r="N13" s="7">
-        <v>256709</v>
+        <v>256710</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4455,13 @@
         <v>632721</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="H14" s="7">
         <v>591</v>
@@ -4497,10 +4473,10 @@
         <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="M14" s="7">
         <v>1173</v>
@@ -4509,13 +4485,13 @@
         <v>1267966</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,7 +4533,7 @@
         <v>1415</v>
       </c>
       <c r="N15" s="7">
-        <v>1524675</v>
+        <v>1524676</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4586,10 +4562,10 @@
         <v>32</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>149</v>
@@ -4598,13 +4574,13 @@
         <v>159580</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>301</v>
@@ -4613,13 +4589,13 @@
         <v>310410</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,10 +4613,10 @@
         <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H17" s="7">
         <v>803</v>
@@ -4649,13 +4625,13 @@
         <v>876685</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>1576</v>
@@ -4664,13 +4640,13 @@
         <v>1656525</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,10 +4717,10 @@
         <v>194</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H19" s="7">
         <v>463</v>
@@ -4753,13 +4729,13 @@
         <v>477446</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>311</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>303</v>
       </c>
       <c r="M19" s="7">
         <v>886</v>
@@ -4768,13 +4744,13 @@
         <v>930600</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>314</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,10 +4768,10 @@
         <v>202</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H20" s="7">
         <v>2852</v>
@@ -4804,13 +4780,13 @@
         <v>3040762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>309</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>318</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>5633</v>
@@ -4819,13 +4795,13 @@
         <v>5952880</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>320</v>
+        <v>206</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,7 +4857,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4902,7 +4878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1002BBC-D994-4548-BFC3-5AD3A6BF861D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA37F29-F1D2-4D3A-ACB8-5792FAF7E917}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4919,7 +4895,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5026,13 +5002,13 @@
         <v>13617</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -5041,13 +5017,13 @@
         <v>11298</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>17</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -5056,13 +5032,13 @@
         <v>24915</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5053,13 @@
         <v>87874</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="H5" s="7">
         <v>226</v>
@@ -5092,13 +5068,13 @@
         <v>119435</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>27</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="M5" s="7">
         <v>329</v>
@@ -5107,13 +5083,13 @@
         <v>207309</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5157,13 @@
         <v>129738</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="H7" s="7">
         <v>162</v>
@@ -5196,13 +5172,13 @@
         <v>113481</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>344</v>
+        <v>53</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>275</v>
@@ -5211,13 +5187,13 @@
         <v>243219</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5208,13 @@
         <v>416934</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>832</v>
@@ -5247,13 +5223,13 @@
         <v>478427</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>353</v>
+        <v>61</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="M8" s="7">
         <v>1328</v>
@@ -5262,13 +5238,13 @@
         <v>895361</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5312,13 @@
         <v>152176</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>213</v>
+        <v>345</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="H10" s="7">
         <v>196</v>
@@ -5351,13 +5327,13 @@
         <v>160336</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>330</v>
@@ -5366,13 +5342,13 @@
         <v>312512</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5363,13 @@
         <v>885926</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>222</v>
+        <v>354</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="H11" s="7">
         <v>1319</v>
@@ -5402,13 +5378,13 @@
         <v>898312</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="M11" s="7">
         <v>2148</v>
@@ -5417,13 +5393,13 @@
         <v>1784238</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,7 +5455,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5491,13 +5467,13 @@
         <v>137058</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="H13" s="7">
         <v>124</v>
@@ -5506,13 +5482,13 @@
         <v>102432</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>231</v>
@@ -5521,13 +5497,13 @@
         <v>239490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,13 +5518,13 @@
         <v>589241</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>921</v>
@@ -5557,13 +5533,13 @@
         <v>771129</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>388</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M14" s="7">
         <v>1488</v>
@@ -5572,13 +5548,13 @@
         <v>1360370</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5622,13 @@
         <v>140212</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>128</v>
@@ -5661,13 +5637,13 @@
         <v>113901</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="M16" s="7">
         <v>259</v>
@@ -5676,13 +5652,13 @@
         <v>254114</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,13 +5673,13 @@
         <v>825191</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>1433</v>
@@ -5712,13 +5688,13 @@
         <v>1035719</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>2308</v>
@@ -5727,13 +5703,13 @@
         <v>1860909</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,13 +5777,13 @@
         <v>572801</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="H19" s="7">
         <v>627</v>
@@ -5816,13 +5792,13 @@
         <v>501448</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>402</v>
       </c>
       <c r="M19" s="7">
         <v>1126</v>
@@ -5831,13 +5807,13 @@
         <v>1074250</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>275</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,13 +5828,13 @@
         <v>2805166</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H20" s="7">
         <v>4731</v>
@@ -5867,13 +5843,13 @@
         <v>3303022</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>409</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="M20" s="7">
         <v>7601</v>
@@ -5882,13 +5858,13 @@
         <v>6108188</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,7 +5920,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P45C_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A918C9C8-2AD8-4D1C-9B92-59F862902724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74BA789C-2ECA-4EB5-909D-BB7B7B117AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D0AE6F1F-9046-497F-BABD-88756DEE7151}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BB267EE0-FF46-45AF-9D3E-77FE948778A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="346">
   <si>
     <t>Población con alguna quemadura solar en el último año en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -68,855 +68,723 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
   </si>
   <si>
     <t>89,22%</t>
   </si>
   <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
   </si>
   <si>
     <t>83,79%</t>
   </si>
   <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2016 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
     <t>81,48%</t>
   </si>
   <si>
@@ -926,9 +794,6 @@
     <t>84,6%</t>
   </si>
   <si>
-    <t>82,13%</t>
-  </si>
-  <si>
     <t>86,77%</t>
   </si>
   <si>
@@ -980,304 +845,238 @@
     <t>Población con alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
   </si>
   <si>
     <t>16,96%</t>
   </si>
   <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
   </si>
   <si>
     <t>83,04%</t>
   </si>
   <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
   </si>
 </sst>
 </file>
@@ -1689,8 +1488,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B197355-41A0-46F0-A86D-E2889DA0C007}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE924FF-2043-419C-9B57-60049E5368F7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1807,10 +1606,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="D4" s="7">
-        <v>19963</v>
+        <v>113575</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1822,10 +1621,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="I4" s="7">
-        <v>12150</v>
+        <v>64947</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1837,10 +1636,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="N4" s="7">
-        <v>32113</v>
+        <v>178522</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1858,10 +1657,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>88</v>
+        <v>570</v>
       </c>
       <c r="D5" s="7">
-        <v>95395</v>
+        <v>579419</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1873,10 +1672,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>114</v>
+        <v>626</v>
       </c>
       <c r="I5" s="7">
-        <v>100605</v>
+        <v>623404</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1888,10 +1687,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>202</v>
+        <v>1196</v>
       </c>
       <c r="N5" s="7">
-        <v>196000</v>
+        <v>1202823</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1909,10 +1708,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>682</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>692994</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1924,10 +1723,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1939,10 +1738,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381345</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1962,10 +1761,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="D7" s="7">
-        <v>93612</v>
+        <v>159469</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1977,10 +1776,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="I7" s="7">
-        <v>52796</v>
+        <v>112324</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1992,10 +1791,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>151</v>
+        <v>257</v>
       </c>
       <c r="N7" s="7">
-        <v>146408</v>
+        <v>271794</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2013,10 +1812,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>482</v>
+        <v>746</v>
       </c>
       <c r="D8" s="7">
-        <v>484024</v>
+        <v>799059</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2028,10 +1827,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>512</v>
+        <v>795</v>
       </c>
       <c r="I8" s="7">
-        <v>522800</v>
+        <v>852538</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2043,10 +1842,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>994</v>
+        <v>1541</v>
       </c>
       <c r="N8" s="7">
-        <v>1006824</v>
+        <v>1651597</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2064,10 +1863,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>577</v>
+        <v>893</v>
       </c>
       <c r="D9" s="7">
-        <v>577636</v>
+        <v>958528</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2079,10 +1878,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>905</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>964862</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2094,10 +1893,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1798</v>
       </c>
       <c r="N9" s="7">
-        <v>1153232</v>
+        <v>1923391</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2117,10 +1916,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="D10" s="7">
-        <v>159469</v>
+        <v>99421</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2132,10 +1931,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="I10" s="7">
-        <v>112324</v>
+        <v>98818</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2147,10 +1946,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="N10" s="7">
-        <v>271794</v>
+        <v>198239</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2168,10 +1967,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>746</v>
+        <v>547</v>
       </c>
       <c r="D11" s="7">
-        <v>799059</v>
+        <v>578276</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2183,10 +1982,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>795</v>
+        <v>593</v>
       </c>
       <c r="I11" s="7">
-        <v>852538</v>
+        <v>583362</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2198,10 +1997,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1541</v>
+        <v>1140</v>
       </c>
       <c r="N11" s="7">
-        <v>1651597</v>
+        <v>1161638</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2219,10 +2018,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>893</v>
+        <v>640</v>
       </c>
       <c r="D12" s="7">
-        <v>958528</v>
+        <v>677697</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2234,10 +2033,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>905</v>
+        <v>694</v>
       </c>
       <c r="I12" s="7">
-        <v>964862</v>
+        <v>682180</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2249,10 +2048,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1798</v>
+        <v>1334</v>
       </c>
       <c r="N12" s="7">
-        <v>1923391</v>
+        <v>1359877</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2272,10 +2071,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="D13" s="7">
-        <v>99421</v>
+        <v>141002</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2287,34 +2086,34 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="I13" s="7">
-        <v>98818</v>
+        <v>142853</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>194</v>
+        <v>294</v>
       </c>
       <c r="N13" s="7">
-        <v>198239</v>
+        <v>283855</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,49 +2122,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>547</v>
+        <v>837</v>
       </c>
       <c r="D14" s="7">
-        <v>578276</v>
+        <v>798643</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>593</v>
+        <v>854</v>
       </c>
       <c r="I14" s="7">
-        <v>583362</v>
+        <v>892753</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1140</v>
+        <v>1691</v>
       </c>
       <c r="N14" s="7">
-        <v>1161638</v>
+        <v>1691396</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,10 +2173,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>640</v>
+        <v>991</v>
       </c>
       <c r="D15" s="7">
-        <v>677697</v>
+        <v>939645</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2389,10 +2188,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>694</v>
+        <v>994</v>
       </c>
       <c r="I15" s="7">
-        <v>682180</v>
+        <v>1035606</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2404,10 +2203,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1334</v>
+        <v>1985</v>
       </c>
       <c r="N15" s="7">
-        <v>1359877</v>
+        <v>1975251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2421,55 +2220,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>154</v>
+        <v>506</v>
       </c>
       <c r="D16" s="7">
-        <v>141002</v>
+        <v>513467</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>140</v>
+        <v>421</v>
       </c>
       <c r="I16" s="7">
-        <v>142853</v>
+        <v>418942</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>294</v>
+        <v>927</v>
       </c>
       <c r="N16" s="7">
-        <v>283855</v>
+        <v>932409</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,49 +2277,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>837</v>
+        <v>2700</v>
       </c>
       <c r="D17" s="7">
-        <v>798643</v>
+        <v>2755397</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>854</v>
+        <v>2868</v>
       </c>
       <c r="I17" s="7">
-        <v>892753</v>
+        <v>2952057</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>1691</v>
+        <v>5568</v>
       </c>
       <c r="N17" s="7">
-        <v>1691396</v>
+        <v>5707455</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,10 +2328,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>991</v>
+        <v>3206</v>
       </c>
       <c r="D18" s="7">
-        <v>939645</v>
+        <v>3268864</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2544,10 +2343,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>994</v>
+        <v>3289</v>
       </c>
       <c r="I18" s="7">
-        <v>1035606</v>
+        <v>3370999</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2559,10 +2358,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1985</v>
+        <v>6495</v>
       </c>
       <c r="N18" s="7">
-        <v>1975251</v>
+        <v>6639864</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2575,171 +2374,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>506</v>
-      </c>
-      <c r="D19" s="7">
-        <v>513467</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>421</v>
-      </c>
-      <c r="I19" s="7">
-        <v>418942</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>927</v>
-      </c>
-      <c r="N19" s="7">
-        <v>932409</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2700</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2755397</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2868</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2952057</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5568</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5707455</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3206</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3268864</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3289</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3370999</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6495</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6639864</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2752,8 +2395,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42FF9B7-B3D0-458F-9099-55677418E2B2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F9D95D-F041-4595-A69B-57DAFA6A2EC5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2769,7 +2412,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2870,49 +2513,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="D4" s="7">
-        <v>27296</v>
+        <v>124091</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="I4" s="7">
-        <v>16274</v>
+        <v>94227</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="N4" s="7">
-        <v>43570</v>
+        <v>218318</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,49 +2564,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>90</v>
+        <v>542</v>
       </c>
       <c r="D5" s="7">
-        <v>85664</v>
+        <v>573725</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>84</v>
+        <v>562</v>
       </c>
       <c r="I5" s="7">
-        <v>94582</v>
+        <v>600735</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>174</v>
+        <v>1104</v>
       </c>
       <c r="N5" s="7">
-        <v>180246</v>
+        <v>1174459</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,10 +2615,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>119</v>
+        <v>668</v>
       </c>
       <c r="D6" s="7">
-        <v>112960</v>
+        <v>697816</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2987,10 +2630,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>98</v>
+        <v>648</v>
       </c>
       <c r="I6" s="7">
-        <v>110856</v>
+        <v>694962</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3002,10 +2645,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>217</v>
+        <v>1316</v>
       </c>
       <c r="N6" s="7">
-        <v>223816</v>
+        <v>1392777</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3025,49 +2668,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="D7" s="7">
-        <v>96796</v>
+        <v>160640</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="I7" s="7">
-        <v>77953</v>
+        <v>130685</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c r="N7" s="7">
-        <v>174748</v>
+        <v>291325</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,49 +2719,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>452</v>
+        <v>776</v>
       </c>
       <c r="D8" s="7">
-        <v>488059</v>
+        <v>847425</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>478</v>
+        <v>809</v>
       </c>
       <c r="I8" s="7">
-        <v>506153</v>
+        <v>890464</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>930</v>
+        <v>1585</v>
       </c>
       <c r="N8" s="7">
-        <v>994213</v>
+        <v>1737889</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,10 +2770,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>549</v>
+        <v>927</v>
       </c>
       <c r="D9" s="7">
-        <v>584855</v>
+        <v>1008065</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3142,10 +2785,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>550</v>
+        <v>930</v>
       </c>
       <c r="I9" s="7">
-        <v>584106</v>
+        <v>1021149</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3157,10 +2800,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1099</v>
+        <v>1857</v>
       </c>
       <c r="N9" s="7">
-        <v>1168961</v>
+        <v>2029214</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3180,49 +2823,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>128</v>
+      </c>
+      <c r="D10" s="7">
+        <v>135541</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="7">
+        <v>104</v>
+      </c>
+      <c r="I10" s="7">
+        <v>109700</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M10" s="7">
+        <v>232</v>
+      </c>
+      <c r="N10" s="7">
+        <v>245241</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="D10" s="7">
-        <v>160640</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" s="7">
-        <v>121</v>
-      </c>
-      <c r="I10" s="7">
-        <v>130685</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M10" s="7">
-        <v>272</v>
-      </c>
-      <c r="N10" s="7">
-        <v>291325</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,49 +2874,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>776</v>
+        <v>553</v>
       </c>
       <c r="D11" s="7">
-        <v>847425</v>
+        <v>613780</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7">
-        <v>809</v>
+        <v>592</v>
       </c>
       <c r="I11" s="7">
-        <v>890464</v>
+        <v>657927</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="M11" s="7">
-        <v>1585</v>
+        <v>1145</v>
       </c>
       <c r="N11" s="7">
-        <v>1737889</v>
+        <v>1271708</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,10 +2925,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>927</v>
+        <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>1008065</v>
+        <v>749321</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3297,10 +2940,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>930</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>1021149</v>
+        <v>767627</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3312,10 +2955,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1857</v>
+        <v>1377</v>
       </c>
       <c r="N12" s="7">
-        <v>2029214</v>
+        <v>1516949</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3335,49 +2978,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="D13" s="7">
-        <v>135541</v>
+        <v>177632</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="I13" s="7">
-        <v>109700</v>
+        <v>140079</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>232</v>
+        <v>315</v>
       </c>
       <c r="N13" s="7">
-        <v>245241</v>
+        <v>317711</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,49 +3029,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>553</v>
+        <v>728</v>
       </c>
       <c r="D14" s="7">
-        <v>613780</v>
+        <v>766213</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="H14" s="7">
-        <v>592</v>
+        <v>854</v>
       </c>
       <c r="I14" s="7">
-        <v>657927</v>
+        <v>899611</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="M14" s="7">
-        <v>1145</v>
+        <v>1582</v>
       </c>
       <c r="N14" s="7">
-        <v>1271707</v>
+        <v>1665824</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,10 +3080,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>681</v>
+        <v>906</v>
       </c>
       <c r="D15" s="7">
-        <v>749321</v>
+        <v>943845</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3452,10 +3095,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>991</v>
       </c>
       <c r="I15" s="7">
-        <v>767627</v>
+        <v>1039690</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3467,10 +3110,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1377</v>
+        <v>1897</v>
       </c>
       <c r="N15" s="7">
-        <v>1516948</v>
+        <v>1983535</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3484,55 +3127,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>583</v>
+      </c>
+      <c r="D16" s="7">
+        <v>597905</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="7">
-        <v>177632</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="H16" s="7">
-        <v>137</v>
+        <v>448</v>
       </c>
       <c r="I16" s="7">
-        <v>140079</v>
+        <v>474690</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
-        <v>315</v>
+        <v>1031</v>
       </c>
       <c r="N16" s="7">
-        <v>317711</v>
+        <v>1072595</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,49 +3184,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>728</v>
+        <v>2599</v>
       </c>
       <c r="D17" s="7">
-        <v>766213</v>
+        <v>2801142</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="H17" s="7">
-        <v>854</v>
+        <v>2817</v>
       </c>
       <c r="I17" s="7">
-        <v>899611</v>
+        <v>3048737</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>1582</v>
+        <v>5416</v>
       </c>
       <c r="N17" s="7">
-        <v>1665824</v>
+        <v>5849880</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,10 +3235,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>906</v>
+        <v>3182</v>
       </c>
       <c r="D18" s="7">
-        <v>943845</v>
+        <v>3399047</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3607,10 +3250,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>991</v>
+        <v>3265</v>
       </c>
       <c r="I18" s="7">
-        <v>1039690</v>
+        <v>3523427</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3622,10 +3265,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1897</v>
+        <v>6447</v>
       </c>
       <c r="N18" s="7">
-        <v>1983535</v>
+        <v>6922475</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3638,171 +3281,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>583</v>
-      </c>
-      <c r="D19" s="7">
-        <v>597905</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H19" s="7">
-        <v>448</v>
-      </c>
-      <c r="I19" s="7">
-        <v>474690</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1031</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1072595</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2599</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2801143</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2817</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3048737</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5416</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5849880</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3182</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3399048</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3265</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3523427</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6447</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6922475</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3815,8 +3302,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6873716F-81F4-48F5-A9A8-A1BB45C97878}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD36C22C-6E31-4395-B368-499B486DC9AA}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3832,7 +3319,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3933,49 +3420,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7">
-        <v>5011</v>
+        <v>54175</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="I4" s="7">
-        <v>6238</v>
+        <v>51322</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="N4" s="7">
-        <v>11249</v>
+        <v>105497</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,49 +3471,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>108</v>
+        <v>600</v>
       </c>
       <c r="D5" s="7">
-        <v>111535</v>
+        <v>618645</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
-        <v>108</v>
+        <v>609</v>
       </c>
       <c r="I5" s="7">
-        <v>107122</v>
+        <v>618709</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
-        <v>216</v>
+        <v>1209</v>
       </c>
       <c r="N5" s="7">
-        <v>218657</v>
+        <v>1237354</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,10 +3522,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>650</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>672820</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4050,10 +3537,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>663</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>670031</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4065,10 +3552,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1313</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1342851</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4088,49 +3575,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="D7" s="7">
-        <v>49164</v>
+        <v>131732</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="7">
+        <v>123</v>
+      </c>
+      <c r="I7" s="7">
+        <v>126252</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="7">
         <v>239</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H7" s="7">
-        <v>47</v>
-      </c>
-      <c r="I7" s="7">
-        <v>45084</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="M7" s="7">
-        <v>92</v>
-      </c>
       <c r="N7" s="7">
-        <v>94248</v>
+        <v>257984</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,49 +3626,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>492</v>
+        <v>826</v>
       </c>
       <c r="D8" s="7">
-        <v>507110</v>
+        <v>880911</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7">
-        <v>501</v>
+        <v>849</v>
       </c>
       <c r="I8" s="7">
-        <v>511587</v>
+        <v>910124</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>85</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="M8" s="7">
-        <v>993</v>
+        <v>1675</v>
       </c>
       <c r="N8" s="7">
-        <v>1018697</v>
+        <v>1791035</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,10 +3677,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>537</v>
+        <v>942</v>
       </c>
       <c r="D9" s="7">
-        <v>556274</v>
+        <v>1012643</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4205,10 +3692,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>548</v>
+        <v>972</v>
       </c>
       <c r="I9" s="7">
-        <v>556671</v>
+        <v>1036376</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4220,10 +3707,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1085</v>
+        <v>1914</v>
       </c>
       <c r="N9" s="7">
-        <v>1112945</v>
+        <v>2049019</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4243,49 +3730,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D10" s="7">
-        <v>131732</v>
+        <v>116418</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="H10" s="7">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="I10" s="7">
-        <v>126252</v>
+        <v>140292</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>258</v>
+        <v>144</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>93</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N10" s="7">
-        <v>257984</v>
+        <v>256709</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,49 +3781,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>826</v>
+        <v>582</v>
       </c>
       <c r="D11" s="7">
-        <v>880911</v>
+        <v>632721</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="H11" s="7">
-        <v>849</v>
+        <v>591</v>
       </c>
       <c r="I11" s="7">
-        <v>910124</v>
+        <v>635244</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>265</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="M11" s="7">
-        <v>1675</v>
+        <v>1173</v>
       </c>
       <c r="N11" s="7">
-        <v>1791035</v>
+        <v>1267966</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,10 +3832,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>942</v>
+        <v>687</v>
       </c>
       <c r="D12" s="7">
-        <v>1012643</v>
+        <v>749139</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4360,10 +3847,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>972</v>
+        <v>728</v>
       </c>
       <c r="I12" s="7">
-        <v>1036376</v>
+        <v>775536</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4375,10 +3862,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1914</v>
+        <v>1415</v>
       </c>
       <c r="N12" s="7">
-        <v>2049019</v>
+        <v>1524675</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4398,49 +3885,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="D13" s="7">
-        <v>116418</v>
+        <v>150830</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="H13" s="7">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="I13" s="7">
-        <v>140292</v>
+        <v>159580</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>116</v>
       </c>
       <c r="M13" s="7">
-        <v>242</v>
+        <v>301</v>
       </c>
       <c r="N13" s="7">
-        <v>256710</v>
+        <v>310410</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,49 +3936,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>582</v>
+        <v>773</v>
       </c>
       <c r="D14" s="7">
-        <v>632721</v>
+        <v>779840</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="H14" s="7">
-        <v>591</v>
+        <v>803</v>
       </c>
       <c r="I14" s="7">
-        <v>635244</v>
+        <v>876685</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>124</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="M14" s="7">
-        <v>1173</v>
+        <v>1576</v>
       </c>
       <c r="N14" s="7">
-        <v>1267966</v>
+        <v>1656525</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,10 +3987,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>687</v>
+        <v>925</v>
       </c>
       <c r="D15" s="7">
-        <v>749139</v>
+        <v>930670</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4515,10 +4002,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>728</v>
+        <v>952</v>
       </c>
       <c r="I15" s="7">
-        <v>775536</v>
+        <v>1036265</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4530,10 +4017,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1415</v>
+        <v>1877</v>
       </c>
       <c r="N15" s="7">
-        <v>1524676</v>
+        <v>1966935</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4547,55 +4034,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>152</v>
+        <v>423</v>
       </c>
       <c r="D16" s="7">
-        <v>150830</v>
+        <v>453154</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
-        <v>149</v>
+        <v>463</v>
       </c>
       <c r="I16" s="7">
-        <v>159580</v>
+        <v>477446</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="M16" s="7">
-        <v>301</v>
+        <v>886</v>
       </c>
       <c r="N16" s="7">
-        <v>310410</v>
+        <v>930600</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,49 +4091,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>773</v>
+        <v>2781</v>
       </c>
       <c r="D17" s="7">
-        <v>779840</v>
+        <v>2912118</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
-        <v>803</v>
+        <v>2852</v>
       </c>
       <c r="I17" s="7">
-        <v>876685</v>
+        <v>3040762</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>1576</v>
+        <v>5633</v>
       </c>
       <c r="N17" s="7">
-        <v>1656525</v>
+        <v>5952880</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,10 +4142,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>925</v>
+        <v>3204</v>
       </c>
       <c r="D18" s="7">
-        <v>930670</v>
+        <v>3365272</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4670,10 +4157,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>952</v>
+        <v>3315</v>
       </c>
       <c r="I18" s="7">
-        <v>1036265</v>
+        <v>3518208</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4685,10 +4172,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1877</v>
+        <v>6519</v>
       </c>
       <c r="N18" s="7">
-        <v>1966935</v>
+        <v>6883480</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4701,171 +4188,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>423</v>
-      </c>
-      <c r="D19" s="7">
-        <v>453154</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H19" s="7">
-        <v>463</v>
-      </c>
-      <c r="I19" s="7">
-        <v>477446</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="M19" s="7">
-        <v>886</v>
-      </c>
-      <c r="N19" s="7">
-        <v>930600</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2781</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2912118</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2852</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3040762</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5633</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5952880</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3204</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3365272</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3315</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3518208</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6519</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6883480</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4878,8 +4209,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA37F29-F1D2-4D3A-ACB8-5792FAF7E917}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA70536-B90E-4046-A486-AECF705A55EC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4895,7 +4226,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4996,49 +4327,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="D4" s="7">
-        <v>13617</v>
+        <v>136892</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="I4" s="7">
-        <v>11298</v>
+        <v>114482</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>17</v>
+        <v>273</v>
       </c>
       <c r="M4" s="7">
-        <v>31</v>
+        <v>306</v>
       </c>
       <c r="N4" s="7">
-        <v>24915</v>
+        <v>251375</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,49 +4378,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>103</v>
+        <v>599</v>
       </c>
       <c r="D5" s="7">
-        <v>87874</v>
+        <v>494807</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="H5" s="7">
-        <v>226</v>
+        <v>1058</v>
       </c>
       <c r="I5" s="7">
-        <v>119435</v>
+        <v>560339</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>27</v>
+        <v>281</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="M5" s="7">
-        <v>329</v>
+        <v>1657</v>
       </c>
       <c r="N5" s="7">
-        <v>207309</v>
+        <v>1055146</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,10 +4429,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>726</v>
       </c>
       <c r="D6" s="7">
-        <v>101491</v>
+        <v>631699</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5113,10 +4444,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1237</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>674821</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5128,10 +4459,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1963</v>
       </c>
       <c r="N6" s="7">
-        <v>232224</v>
+        <v>1306521</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5151,49 +4482,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D7" s="7">
-        <v>129738</v>
+        <v>137250</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H7" s="7">
+        <v>196</v>
+      </c>
+      <c r="I7" s="7">
+        <v>142352</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M7" s="7">
         <v>330</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H7" s="7">
-        <v>162</v>
-      </c>
-      <c r="I7" s="7">
-        <v>113481</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="M7" s="7">
-        <v>275</v>
-      </c>
       <c r="N7" s="7">
-        <v>243219</v>
+        <v>279602</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>334</v>
+        <v>209</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,49 +4533,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>496</v>
+        <v>829</v>
       </c>
       <c r="D8" s="7">
-        <v>416934</v>
+        <v>1054487</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>293</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="H8" s="7">
-        <v>832</v>
+        <v>1319</v>
       </c>
       <c r="I8" s="7">
-        <v>478427</v>
+        <v>815094</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>61</v>
+        <v>296</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>341</v>
+        <v>81</v>
       </c>
       <c r="M8" s="7">
-        <v>1328</v>
+        <v>2148</v>
       </c>
       <c r="N8" s="7">
-        <v>895361</v>
+        <v>1869581</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>342</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,10 +4584,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>609</v>
+        <v>963</v>
       </c>
       <c r="D9" s="7">
-        <v>546672</v>
+        <v>1191737</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5268,10 +4599,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>994</v>
+        <v>1515</v>
       </c>
       <c r="I9" s="7">
-        <v>591908</v>
+        <v>957446</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5283,10 +4614,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1603</v>
+        <v>2478</v>
       </c>
       <c r="N9" s="7">
-        <v>1138580</v>
+        <v>2149183</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5306,49 +4637,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D10" s="7">
-        <v>152176</v>
+        <v>128663</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="H10" s="7">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="I10" s="7">
-        <v>160336</v>
+        <v>92016</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
-        <v>330</v>
+        <v>231</v>
       </c>
       <c r="N10" s="7">
-        <v>312512</v>
+        <v>220679</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>353</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,49 +4688,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>829</v>
+        <v>567</v>
       </c>
       <c r="D11" s="7">
-        <v>885926</v>
+        <v>573599</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
-        <v>1319</v>
+        <v>921</v>
       </c>
       <c r="I11" s="7">
-        <v>898312</v>
+        <v>840595</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
-        <v>2148</v>
+        <v>1488</v>
       </c>
       <c r="N11" s="7">
-        <v>1784238</v>
+        <v>1414194</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>361</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,10 +4739,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>674</v>
       </c>
       <c r="D12" s="7">
-        <v>1038102</v>
+        <v>702262</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5423,10 +4754,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1515</v>
+        <v>1045</v>
       </c>
       <c r="I12" s="7">
-        <v>1058648</v>
+        <v>932611</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5438,10 +4769,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2478</v>
+        <v>1719</v>
       </c>
       <c r="N12" s="7">
-        <v>2096750</v>
+        <v>1634873</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5461,49 +4792,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D13" s="7">
-        <v>137058</v>
+        <v>129211</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>364</v>
+        <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="H13" s="7">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I13" s="7">
-        <v>102432</v>
+        <v>101593</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>320</v>
       </c>
       <c r="M13" s="7">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="N13" s="7">
-        <v>239490</v>
+        <v>230803</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>370</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,49 +4843,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>567</v>
+        <v>875</v>
       </c>
       <c r="D14" s="7">
-        <v>589241</v>
+        <v>797620</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>25</v>
       </c>
       <c r="H14" s="7">
-        <v>921</v>
+        <v>1433</v>
       </c>
       <c r="I14" s="7">
-        <v>771129</v>
+        <v>992649</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="M14" s="7">
-        <v>1488</v>
+        <v>2308</v>
       </c>
       <c r="N14" s="7">
-        <v>1360370</v>
+        <v>1790270</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>377</v>
+        <v>217</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,10 +4894,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>674</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>726299</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5578,10 +4909,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1045</v>
+        <v>1561</v>
       </c>
       <c r="I15" s="7">
-        <v>873561</v>
+        <v>1094242</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5593,10 +4924,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1719</v>
+        <v>2567</v>
       </c>
       <c r="N15" s="7">
-        <v>1599860</v>
+        <v>2021073</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5610,55 +4941,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>131</v>
+        <v>499</v>
       </c>
       <c r="D16" s="7">
-        <v>140212</v>
+        <v>532017</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>56</v>
       </c>
       <c r="H16" s="7">
-        <v>128</v>
+        <v>627</v>
       </c>
       <c r="I16" s="7">
-        <v>113901</v>
+        <v>450443</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="M16" s="7">
-        <v>259</v>
+        <v>1126</v>
       </c>
       <c r="N16" s="7">
-        <v>254114</v>
+        <v>982460</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,49 +4998,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>875</v>
+        <v>2870</v>
       </c>
       <c r="D17" s="7">
-        <v>825191</v>
+        <v>2920513</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>389</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="H17" s="7">
-        <v>1433</v>
+        <v>4731</v>
       </c>
       <c r="I17" s="7">
-        <v>1035719</v>
+        <v>3208677</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
       <c r="M17" s="7">
-        <v>2308</v>
+        <v>7601</v>
       </c>
       <c r="N17" s="7">
-        <v>1860909</v>
+        <v>6129190</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>395</v>
+        <v>344</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>396</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,10 +5049,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3369</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3452530</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5733,10 +5064,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1561</v>
+        <v>5358</v>
       </c>
       <c r="I18" s="7">
-        <v>1149620</v>
+        <v>3659120</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5748,10 +5079,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2567</v>
+        <v>8727</v>
       </c>
       <c r="N18" s="7">
-        <v>2115023</v>
+        <v>7111650</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5764,171 +5095,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>499</v>
-      </c>
-      <c r="D19" s="7">
-        <v>572801</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="H19" s="7">
-        <v>627</v>
-      </c>
-      <c r="I19" s="7">
-        <v>501448</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1126</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1074250</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2870</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2805166</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4731</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3303022</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7601</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6108188</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3369</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3377967</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5358</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3804470</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8727</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7182438</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/P45C_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R2-Habitat-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año en 2007</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año en 2007</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2501,7 +2501,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año en 2012</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año en 2012</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4456,7 +4456,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año en 2016</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año en 2016</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6411,7 +6411,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año en 2023</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
